--- a/hiqu/HR/Performance Evaluation/December 2024/Dev/Abid Ali.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/Dev/Abid Ali.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC48B0-75B8-4D5E-8E50-D6BC7FEB22C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F6F5A-9B96-41DD-AF3F-D45BFECA4E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
   <si>
     <t>Employee Name</t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>Media Plan: Import/Export Flighting</t>
+  </si>
+  <si>
+    <t>JustGlobal</t>
+  </si>
+  <si>
+    <t>PlusCo</t>
+  </si>
+  <si>
+    <t>TheShipyard</t>
+  </si>
+  <si>
+    <t>Tasks by US Team - TheShipyard</t>
   </si>
 </sst>
 </file>
@@ -898,7 +910,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1196,6 +1208,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3322,7 +3340,7 @@
       </c>
       <c r="C10" s="86">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.5041095890410958</v>
+        <v>1.5780821917808219</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="86"/>
@@ -4334,13 +4352,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E32AE3-B424-4525-B4B8-18EA241F10A7}">
-  <dimension ref="B2:Z65"/>
+  <dimension ref="B2:Z80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4586,7 +4604,7 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="73" t="str">
-        <f t="shared" ref="S8:S60" si="0">IF(Q8&gt;0,IF(R8&gt;0,Q8-R8,""),"")</f>
+        <f t="shared" ref="S8:S75" si="0">IF(Q8&gt;0,IF(R8&gt;0,Q8-R8,""),"")</f>
         <v/>
       </c>
       <c r="T8" s="34"/>
@@ -4607,8 +4625,7 @@
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47">
-        <f>9.5+4</f>
-        <v>13.5</v>
+        <v>45.5</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
@@ -4620,7 +4637,7 @@
       <c r="M9" s="42"/>
       <c r="N9" s="44"/>
       <c r="O9" s="73" t="str">
-        <f t="shared" ref="O9:O60" si="2">IF(M9&gt;0,IF(N9&gt;0,M9-N9,""),"")</f>
+        <f t="shared" ref="O9:O75" si="2">IF(M9&gt;0,IF(N9&gt;0,M9-N9,""),"")</f>
         <v/>
       </c>
       <c r="P9" s="34"/>
@@ -4633,7 +4650,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="46">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>45.5</v>
       </c>
       <c r="V9" s="34"/>
       <c r="W9" s="44">
@@ -4967,117 +4984,90 @@
       <c r="Z17" s="57"/>
     </row>
     <row r="18" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="M18" s="56"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T18" s="50"/>
-      <c r="U18" s="46">
-        <f t="shared" ref="U18:U21" si="3">D18+E18+F18+G18+I18+J18+K18+N18+R18</f>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="46"/>
       <c r="V18" s="34"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="45"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="43"/>
+      <c r="C19" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44">
+        <v>1</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="M19" s="56"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T19" s="50"/>
-      <c r="U19" s="46">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="46"/>
       <c r="V19" s="34"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="45"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
-      <c r="C20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="56">
-        <v>2</v>
-      </c>
+      <c r="C20" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44">
+        <v>28.5</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="59"/>
       <c r="L20" s="32"/>
       <c r="M20" s="56"/>
       <c r="N20" s="54"/>
-      <c r="O20" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O20" s="73"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="54"/>
-      <c r="S20" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T20" s="50"/>
-      <c r="U20" s="46">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="S20" s="73"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="34"/>
       <c r="W20" s="54"/>
       <c r="X20" s="54"/>
@@ -5086,40 +5076,29 @@
     </row>
     <row r="21" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
+      <c r="C21" s="114" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="G21" s="44">
+        <v>1.5</v>
+      </c>
       <c r="H21" s="56"/>
-      <c r="I21" s="56">
-        <v>3</v>
-      </c>
-      <c r="J21" s="56">
-        <v>3</v>
-      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="59"/>
       <c r="L21" s="32"/>
       <c r="M21" s="56"/>
       <c r="N21" s="54"/>
-      <c r="O21" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O21" s="73"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
-      <c r="S21" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S21" s="73"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="46">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+      <c r="U21" s="46"/>
       <c r="V21" s="34"/>
       <c r="W21" s="54"/>
       <c r="X21" s="54"/>
@@ -5127,66 +5106,56 @@
       <c r="Z21" s="57"/>
     </row>
     <row r="22" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56">
-        <v>4</v>
-      </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="59"/>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="54"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P22" s="34"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54">
-        <v>9</v>
-      </c>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
       <c r="S22" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T22" s="34"/>
+      <c r="T22" s="50"/>
       <c r="U22" s="46">
-        <f t="shared" ref="U22:U30" si="4">D22+E22+F22+G22+I22+J22+K22+N22+R22</f>
-        <v>13</v>
+        <f t="shared" ref="U22:U25" si="3">D22+E22+F22+G22+I22+J22+K22+N22+R22</f>
+        <v>0</v>
       </c>
       <c r="V22" s="34"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="57"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
     </row>
     <row r="23" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="47">
-        <v>26</v>
-      </c>
-      <c r="E23" s="47">
-        <v>27</v>
-      </c>
-      <c r="F23" s="47">
-        <v>32.5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
       <c r="J23" s="42">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K23" s="43"/>
       <c r="L23" s="32"/>
@@ -5205,8 +5174,8 @@
       </c>
       <c r="T23" s="50"/>
       <c r="U23" s="46">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="V23" s="34"/>
       <c r="W23" s="44"/>
@@ -5217,20 +5186,18 @@
     <row r="24" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54">
-        <v>1</v>
-      </c>
-      <c r="J24" s="54">
-        <v>1</v>
-      </c>
-      <c r="K24" s="55"/>
+        <v>90</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="56">
+        <v>2</v>
+      </c>
+      <c r="K24" s="59"/>
       <c r="L24" s="32"/>
       <c r="M24" s="56"/>
       <c r="N24" s="54"/>
@@ -5238,19 +5205,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="54"/>
+      <c r="P24" s="34"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
       <c r="S24" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T24" s="54"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V24" s="54"/>
+      <c r="V24" s="34"/>
       <c r="W24" s="54"/>
       <c r="X24" s="54"/>
       <c r="Y24" s="54"/>
@@ -5259,62 +5226,60 @@
     <row r="25" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44">
-        <v>13</v>
-      </c>
-      <c r="J25" s="44">
-        <v>2</v>
-      </c>
-      <c r="K25" s="52"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56">
+        <v>3</v>
+      </c>
+      <c r="J25" s="56">
+        <v>3</v>
+      </c>
+      <c r="K25" s="59"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="44">
-        <v>7</v>
-      </c>
+      <c r="M25" s="56"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T25" s="44"/>
+      <c r="T25" s="34"/>
       <c r="U25" s="46">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="45"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V25" s="34"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54">
-        <v>2</v>
-      </c>
-      <c r="K26" s="55"/>
+        <v>110</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56">
+        <v>4</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="32"/>
       <c r="M26" s="56"/>
       <c r="N26" s="54"/>
@@ -5322,68 +5287,76 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="54"/>
+      <c r="P26" s="34"/>
       <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
+      <c r="R26" s="54">
+        <v>9</v>
+      </c>
       <c r="S26" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T26" s="54"/>
+      <c r="T26" s="34"/>
       <c r="U26" s="46">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V26" s="54"/>
+        <f t="shared" ref="U26:U34" si="4">D26+E26+F26+G26+I26+J26+K26+N26+R26</f>
+        <v>13</v>
+      </c>
+      <c r="V26" s="34"/>
       <c r="W26" s="54"/>
       <c r="X26" s="54"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="57"/>
     </row>
     <row r="27" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54">
-        <v>2</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
+        <v>77</v>
+      </c>
+      <c r="D27" s="47">
+        <v>26</v>
+      </c>
+      <c r="E27" s="47">
+        <v>27</v>
+      </c>
+      <c r="F27" s="47">
+        <v>32.5</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="K27" s="43"/>
       <c r="L27" s="32"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="54"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
       <c r="S27" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T27" s="54"/>
+      <c r="T27" s="50"/>
       <c r="U27" s="46">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="57"/>
+        <v>90</v>
+      </c>
+      <c r="V27" s="34"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="45"/>
     </row>
     <row r="28" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -5391,17 +5364,15 @@
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="54">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="J28" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="55"/>
       <c r="L28" s="32"/>
       <c r="M28" s="56"/>
-      <c r="N28" s="54">
-        <v>28</v>
-      </c>
+      <c r="N28" s="54"/>
       <c r="O28" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5416,7 +5387,7 @@
       <c r="T28" s="54"/>
       <c r="U28" s="46">
         <f t="shared" si="4"/>
-        <v>43.5</v>
+        <v>2</v>
       </c>
       <c r="V28" s="54"/>
       <c r="W28" s="54"/>
@@ -5427,49 +5398,51 @@
     <row r="29" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54">
-        <v>1</v>
-      </c>
-      <c r="K29" s="55"/>
+        <v>111</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44">
+        <v>13</v>
+      </c>
+      <c r="J29" s="44">
+        <v>2</v>
+      </c>
+      <c r="K29" s="52"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="54">
-        <v>2</v>
+      <c r="M29" s="42"/>
+      <c r="N29" s="44">
+        <v>7</v>
       </c>
       <c r="O29" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
       <c r="S29" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T29" s="54"/>
+      <c r="T29" s="44"/>
       <c r="U29" s="46">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="45"/>
     </row>
     <row r="30" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
@@ -5478,7 +5451,7 @@
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
       <c r="J30" s="54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K30" s="55"/>
       <c r="L30" s="32"/>
@@ -5498,7 +5471,7 @@
       <c r="T30" s="54"/>
       <c r="U30" s="46">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V30" s="54"/>
       <c r="W30" s="54"/>
@@ -5507,19 +5480,19 @@
       <c r="Z30" s="57"/>
     </row>
     <row r="31" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54">
-        <v>1</v>
-      </c>
+      <c r="I31" s="54">
+        <v>2</v>
+      </c>
+      <c r="J31" s="54"/>
       <c r="K31" s="55"/>
       <c r="L31" s="32"/>
       <c r="M31" s="56"/>
@@ -5537,8 +5510,8 @@
       </c>
       <c r="T31" s="54"/>
       <c r="U31" s="46">
-        <f t="shared" ref="U31:U60" si="5">D31+E31+F31+G31+I31+J31+K31+N31+R31</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="V31" s="54"/>
       <c r="W31" s="54"/>
@@ -5547,21 +5520,27 @@
       <c r="Z31" s="57"/>
     </row>
     <row r="32" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="I32" s="54">
+        <v>10.5</v>
+      </c>
+      <c r="J32" s="54">
+        <v>5</v>
+      </c>
       <c r="K32" s="55"/>
       <c r="L32" s="32"/>
       <c r="M32" s="56"/>
-      <c r="N32" s="54"/>
+      <c r="N32" s="54">
+        <v>28</v>
+      </c>
       <c r="O32" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5575,8 +5554,8 @@
       </c>
       <c r="T32" s="54"/>
       <c r="U32" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>43.5</v>
       </c>
       <c r="V32" s="54"/>
       <c r="W32" s="54"/>
@@ -5587,15 +5566,11 @@
     <row r="33" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="54">
-        <v>7</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D33" s="54"/>
       <c r="E33" s="54"/>
-      <c r="F33" s="54">
-        <v>6</v>
-      </c>
+      <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
       <c r="I33" s="54"/>
@@ -5605,7 +5580,9 @@
       <c r="K33" s="55"/>
       <c r="L33" s="32"/>
       <c r="M33" s="56"/>
-      <c r="N33" s="54"/>
+      <c r="N33" s="54">
+        <v>2</v>
+      </c>
       <c r="O33" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5619,8 +5596,8 @@
       </c>
       <c r="T33" s="54"/>
       <c r="U33" s="46">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="V33" s="54"/>
       <c r="W33" s="54"/>
@@ -5631,7 +5608,7 @@
     <row r="34" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
@@ -5639,13 +5616,13 @@
       <c r="G34" s="54"/>
       <c r="H34" s="54"/>
       <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="J34" s="54">
+        <v>2.5</v>
+      </c>
       <c r="K34" s="55"/>
       <c r="L34" s="32"/>
       <c r="M34" s="56"/>
-      <c r="N34" s="54">
-        <v>3</v>
-      </c>
+      <c r="N34" s="54"/>
       <c r="O34" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5659,8 +5636,8 @@
       </c>
       <c r="T34" s="54"/>
       <c r="U34" s="46">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="V34" s="54"/>
       <c r="W34" s="54"/>
@@ -5671,7 +5648,7 @@
     <row r="35" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
@@ -5679,13 +5656,13 @@
       <c r="G35" s="54"/>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="54">
+        <v>1</v>
+      </c>
       <c r="K35" s="55"/>
       <c r="L35" s="32"/>
       <c r="M35" s="56"/>
-      <c r="N35" s="54">
-        <v>11.5</v>
-      </c>
+      <c r="N35" s="54"/>
       <c r="O35" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5699,8 +5676,8 @@
       </c>
       <c r="T35" s="54"/>
       <c r="U35" s="46">
-        <f t="shared" si="5"/>
-        <v>11.5</v>
+        <f t="shared" ref="U35:U75" si="5">D35+E35+F35+G35+I35+J35+K35+N35+R35</f>
+        <v>1</v>
       </c>
       <c r="V35" s="54"/>
       <c r="W35" s="54"/>
@@ -5710,7 +5687,7 @@
     </row>
     <row r="36" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="54"/>
@@ -5749,15 +5726,23 @@
     <row r="37" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
       <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+        <v>77</v>
+      </c>
+      <c r="D37" s="54">
+        <v>23.5</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54">
+        <v>14</v>
+      </c>
       <c r="G37" s="54"/>
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="54">
+        <v>1</v>
+      </c>
       <c r="K37" s="55"/>
       <c r="L37" s="32"/>
       <c r="M37" s="56"/>
@@ -5768,9 +5753,7 @@
       </c>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
-      <c r="R37" s="54">
-        <v>19</v>
-      </c>
+      <c r="R37" s="54"/>
       <c r="S37" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5778,7 +5761,7 @@
       <c r="T37" s="54"/>
       <c r="U37" s="46">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>39.5</v>
       </c>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -5789,13 +5772,11 @@
     <row r="38" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
-      <c r="F38" s="54">
-        <v>10.5</v>
-      </c>
+      <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
@@ -5803,7 +5784,9 @@
       <c r="K38" s="55"/>
       <c r="L38" s="32"/>
       <c r="M38" s="56"/>
-      <c r="N38" s="54"/>
+      <c r="N38" s="54">
+        <v>3</v>
+      </c>
       <c r="O38" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5818,7 +5801,7 @@
       <c r="T38" s="54"/>
       <c r="U38" s="46">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -5829,12 +5812,10 @@
     <row r="39" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D39" s="54"/>
-      <c r="E39" s="54">
-        <v>1</v>
-      </c>
+      <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
       <c r="H39" s="54"/>
@@ -5843,7 +5824,9 @@
       <c r="K39" s="55"/>
       <c r="L39" s="32"/>
       <c r="M39" s="56"/>
-      <c r="N39" s="54"/>
+      <c r="N39" s="54">
+        <v>11.5</v>
+      </c>
       <c r="O39" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5858,7 +5841,7 @@
       <c r="T39" s="54"/>
       <c r="U39" s="46">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="V39" s="54"/>
       <c r="W39" s="54"/>
@@ -5869,36 +5852,30 @@
     <row r="40" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
-      <c r="I40" s="54">
-        <v>11</v>
-      </c>
-      <c r="J40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54">
+        <v>1</v>
+      </c>
       <c r="K40" s="55"/>
       <c r="L40" s="32"/>
       <c r="M40" s="56"/>
       <c r="N40" s="54"/>
-      <c r="O40" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O40" s="73"/>
       <c r="P40" s="54"/>
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
-      <c r="S40" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S40" s="73"/>
       <c r="T40" s="54"/>
       <c r="U40" s="46">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V40" s="54"/>
       <c r="W40" s="54"/>
@@ -5908,7 +5885,7 @@
     </row>
     <row r="41" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="54"/>
@@ -5947,25 +5924,15 @@
     <row r="42" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
       <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="54">
-        <v>2</v>
-      </c>
-      <c r="E42" s="54">
-        <v>22.5</v>
-      </c>
-      <c r="F42" s="54">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="54"/>
-      <c r="H42" s="54">
-        <v>9</v>
-      </c>
+      <c r="H42" s="54"/>
       <c r="I42" s="54"/>
-      <c r="J42" s="54">
-        <v>5</v>
-      </c>
+      <c r="J42" s="54"/>
       <c r="K42" s="55"/>
       <c r="L42" s="32"/>
       <c r="M42" s="56"/>
@@ -5977,7 +5944,7 @@
       <c r="P42" s="54"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="54">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S42" s="73" t="str">
         <f t="shared" si="0"/>
@@ -5986,7 +5953,7 @@
       <c r="T42" s="54"/>
       <c r="U42" s="46">
         <f t="shared" si="5"/>
-        <v>44.5</v>
+        <v>19</v>
       </c>
       <c r="V42" s="54"/>
       <c r="W42" s="54"/>
@@ -5997,13 +5964,13 @@
     <row r="43" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D43" s="54"/>
-      <c r="E43" s="54">
-        <v>2.5</v>
-      </c>
-      <c r="F43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54">
+        <v>10.5</v>
+      </c>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
@@ -6026,7 +5993,7 @@
       <c r="T43" s="54"/>
       <c r="U43" s="46">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -6037,16 +6004,16 @@
     <row r="44" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="41"/>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
+      <c r="E44" s="54">
+        <v>1</v>
+      </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
-      <c r="I44" s="54">
-        <v>2</v>
-      </c>
+      <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="55"/>
       <c r="L44" s="32"/>
@@ -6066,7 +6033,7 @@
       <c r="T44" s="54"/>
       <c r="U44" s="46">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -6075,16 +6042,18 @@
       <c r="Z44" s="57"/>
     </row>
     <row r="45" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
+      <c r="I45" s="54">
+        <v>11</v>
+      </c>
       <c r="J45" s="54"/>
       <c r="K45" s="55"/>
       <c r="L45" s="32"/>
@@ -6104,7 +6073,7 @@
       <c r="T45" s="54"/>
       <c r="U45" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V45" s="54"/>
       <c r="W45" s="54"/>
@@ -6113,16 +6082,14 @@
       <c r="Z45" s="57"/>
     </row>
     <row r="46" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="54">
-        <v>1</v>
-      </c>
+      <c r="G46" s="54"/>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
@@ -6144,7 +6111,7 @@
       <c r="T46" s="54"/>
       <c r="U46" s="46">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="54"/>
       <c r="W46" s="54"/>
@@ -6153,17 +6120,27 @@
       <c r="Z46" s="57"/>
     </row>
     <row r="47" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="54">
+        <v>4</v>
+      </c>
+      <c r="E47" s="54">
+        <v>22.5</v>
+      </c>
+      <c r="F47" s="54">
+        <v>5</v>
+      </c>
       <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
+      <c r="H47" s="54">
+        <v>9</v>
+      </c>
       <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="J47" s="54">
+        <v>7</v>
+      </c>
       <c r="K47" s="55"/>
       <c r="L47" s="32"/>
       <c r="M47" s="56"/>
@@ -6174,7 +6151,9 @@
       </c>
       <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
+      <c r="R47" s="54">
+        <v>10</v>
+      </c>
       <c r="S47" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6182,7 +6161,7 @@
       <c r="T47" s="54"/>
       <c r="U47" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="V47" s="54"/>
       <c r="W47" s="54"/>
@@ -6191,23 +6170,20 @@
       <c r="Z47" s="57"/>
     </row>
     <row r="48" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="54">
-        <v>12.5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D48" s="54"/>
       <c r="E48" s="54">
-        <f>31+4</f>
-        <v>35</v>
+        <v>2.5</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
-      <c r="H48" s="54">
-        <v>7.5</v>
-      </c>
-      <c r="I48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54">
+        <v>3</v>
+      </c>
       <c r="J48" s="54"/>
       <c r="K48" s="55"/>
       <c r="L48" s="32"/>
@@ -6219,7 +6195,9 @@
       </c>
       <c r="P48" s="54"/>
       <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
+      <c r="R48" s="54">
+        <v>10.5</v>
+      </c>
       <c r="S48" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6227,7 +6205,7 @@
       <c r="T48" s="54"/>
       <c r="U48" s="46">
         <f t="shared" si="5"/>
-        <v>47.5</v>
+        <v>16</v>
       </c>
       <c r="V48" s="54"/>
       <c r="W48" s="54"/>
@@ -6236,18 +6214,18 @@
       <c r="Z48" s="57"/>
     </row>
     <row r="49" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
-      <c r="F49" s="54">
-        <v>3.5</v>
-      </c>
+      <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
+      <c r="I49" s="54">
+        <v>3</v>
+      </c>
       <c r="J49" s="54"/>
       <c r="K49" s="55"/>
       <c r="L49" s="32"/>
@@ -6267,7 +6245,7 @@
       <c r="T49" s="54"/>
       <c r="U49" s="46">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V49" s="54"/>
       <c r="W49" s="54"/>
@@ -6278,38 +6256,36 @@
     <row r="50" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54">
-        <v>13</v>
-      </c>
+      <c r="I50" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="J50" s="54"/>
       <c r="K50" s="55"/>
       <c r="L50" s="32"/>
       <c r="M50" s="56"/>
       <c r="N50" s="54"/>
       <c r="O50" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O50:O53" si="6">IF(M50&gt;0,IF(N50&gt;0,M50-N50,""),"")</f>
         <v/>
       </c>
       <c r="P50" s="54"/>
       <c r="Q50" s="54"/>
-      <c r="R50" s="54">
-        <v>12</v>
-      </c>
+      <c r="R50" s="54"/>
       <c r="S50" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S50:S53" si="7">IF(Q50&gt;0,IF(R50&gt;0,Q50-R50,""),"")</f>
         <v/>
       </c>
       <c r="T50" s="54"/>
       <c r="U50" s="46">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" ref="U50:U56" si="8">D50+E50+F50+G50+I50+J50+K50+N50+R50</f>
+        <v>2.5</v>
       </c>
       <c r="V50" s="54"/>
       <c r="W50" s="54"/>
@@ -6320,36 +6296,38 @@
     <row r="51" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
-      <c r="F51" s="54">
-        <v>3</v>
-      </c>
+      <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="I51" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="J51" s="54">
+        <v>0.5</v>
+      </c>
       <c r="K51" s="55"/>
       <c r="L51" s="32"/>
       <c r="M51" s="56"/>
       <c r="N51" s="54"/>
       <c r="O51" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
       <c r="R51" s="54"/>
       <c r="S51" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T51" s="54"/>
       <c r="U51" s="46">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="V51" s="54"/>
       <c r="W51" s="54"/>
@@ -6360,39 +6338,36 @@
     <row r="52" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="54">
-        <v>2.7</v>
-      </c>
-      <c r="E52" s="54">
-        <f>30+2.7</f>
-        <v>32.700000000000003</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="54">
+        <v>1</v>
+      </c>
       <c r="K52" s="55"/>
       <c r="L52" s="32"/>
       <c r="M52" s="56"/>
       <c r="N52" s="54"/>
       <c r="O52" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P52" s="54"/>
       <c r="Q52" s="54"/>
       <c r="R52" s="54"/>
       <c r="S52" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T52" s="54"/>
       <c r="U52" s="46">
-        <f t="shared" si="5"/>
-        <v>35.400000000000006</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="V52" s="54"/>
       <c r="W52" s="54"/>
@@ -6401,36 +6376,38 @@
       <c r="Z52" s="57"/>
     </row>
     <row r="53" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="54">
+        <v>1</v>
+      </c>
       <c r="K53" s="55"/>
       <c r="L53" s="32"/>
       <c r="M53" s="56"/>
       <c r="N53" s="54"/>
       <c r="O53" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P53" s="54"/>
       <c r="Q53" s="54"/>
       <c r="R53" s="54"/>
       <c r="S53" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T53" s="54"/>
       <c r="U53" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="V53" s="54"/>
       <c r="W53" s="54"/>
@@ -6439,16 +6416,14 @@
       <c r="Z53" s="57"/>
     </row>
     <row r="54" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="54"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
-      <c r="G54" s="54">
-        <v>9</v>
-      </c>
+      <c r="G54" s="54"/>
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
       <c r="J54" s="54"/>
@@ -6456,21 +6431,15 @@
       <c r="L54" s="32"/>
       <c r="M54" s="56"/>
       <c r="N54" s="54"/>
-      <c r="O54" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O54" s="73"/>
       <c r="P54" s="54"/>
       <c r="Q54" s="54"/>
       <c r="R54" s="54"/>
-      <c r="S54" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S54" s="73"/>
       <c r="T54" s="54"/>
       <c r="U54" s="46">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="V54" s="54"/>
       <c r="W54" s="54"/>
@@ -6480,11 +6449,15 @@
     </row>
     <row r="55" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D55" s="54"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
+      <c r="G55" s="54">
+        <v>9</v>
+      </c>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
       <c r="J55" s="54"/>
@@ -6492,21 +6465,15 @@
       <c r="L55" s="32"/>
       <c r="M55" s="56"/>
       <c r="N55" s="54"/>
-      <c r="O55" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O55" s="73"/>
       <c r="P55" s="54"/>
       <c r="Q55" s="54"/>
       <c r="R55" s="54"/>
-      <c r="S55" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S55" s="73"/>
       <c r="T55" s="54"/>
       <c r="U55" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="V55" s="54"/>
       <c r="W55" s="54"/>
@@ -6528,20 +6495,14 @@
       <c r="L56" s="32"/>
       <c r="M56" s="56"/>
       <c r="N56" s="54"/>
-      <c r="O56" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O56" s="73"/>
       <c r="P56" s="54"/>
       <c r="Q56" s="54"/>
       <c r="R56" s="54"/>
-      <c r="S56" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S56" s="73"/>
       <c r="T56" s="54"/>
       <c r="U56" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V56" s="54"/>
@@ -6551,7 +6512,9 @@
       <c r="Z56" s="57"/>
     </row>
     <row r="57" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="54"/>
       <c r="E57" s="54"/>
@@ -6586,9 +6549,11 @@
       <c r="Y57" s="54"/>
       <c r="Z57" s="57"/>
     </row>
-    <row r="58" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="60"/>
-      <c r="C58" s="41"/>
+    <row r="58" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="41"/>
+      <c r="C58" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D58" s="54"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
@@ -6622,13 +6587,17 @@
       <c r="Y58" s="54"/>
       <c r="Z58" s="57"/>
     </row>
-    <row r="59" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="60"/>
-      <c r="C59" s="41"/>
+    <row r="59" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="41"/>
+      <c r="C59" s="115" t="s">
+        <v>153</v>
+      </c>
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
+      <c r="G59" s="54">
+        <v>1</v>
+      </c>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
       <c r="J59" s="54"/>
@@ -6636,21 +6605,15 @@
       <c r="L59" s="32"/>
       <c r="M59" s="56"/>
       <c r="N59" s="54"/>
-      <c r="O59" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O59" s="73"/>
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
-      <c r="S59" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S59" s="73"/>
       <c r="T59" s="54"/>
       <c r="U59" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="54"/>
       <c r="W59" s="54"/>
@@ -6658,13 +6621,17 @@
       <c r="Y59" s="54"/>
       <c r="Z59" s="57"/>
     </row>
-    <row r="60" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
+      <c r="C60" s="115" t="s">
+        <v>155</v>
+      </c>
       <c r="D60" s="54"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
+      <c r="G60" s="54">
+        <v>5</v>
+      </c>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
       <c r="J60" s="54"/>
@@ -6672,21 +6639,15 @@
       <c r="L60" s="32"/>
       <c r="M60" s="56"/>
       <c r="N60" s="54"/>
-      <c r="O60" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="O60" s="73"/>
       <c r="P60" s="54"/>
       <c r="Q60" s="54"/>
       <c r="R60" s="54"/>
-      <c r="S60" s="73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S60" s="73"/>
       <c r="T60" s="54"/>
       <c r="U60" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V60" s="54"/>
       <c r="W60" s="54"/>
@@ -6694,185 +6655,763 @@
       <c r="Y60" s="54"/>
       <c r="Z60" s="57"/>
     </row>
-    <row r="61" spans="2:26" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="62" t="s">
+    <row r="61" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="41"/>
+      <c r="C61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54">
+        <v>5</v>
+      </c>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="46">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="57"/>
+    </row>
+    <row r="62" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T62" s="54"/>
+      <c r="U62" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="57"/>
+    </row>
+    <row r="63" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="54">
+        <v>12.5</v>
+      </c>
+      <c r="E63" s="54">
+        <f>31+4</f>
+        <v>35</v>
+      </c>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54">
+        <v>24.5</v>
+      </c>
+      <c r="H63" s="54">
+        <v>7.5</v>
+      </c>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T63" s="54"/>
+      <c r="U63" s="46">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="57"/>
+    </row>
+    <row r="64" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T64" s="54"/>
+      <c r="U64" s="46">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="57"/>
+    </row>
+    <row r="65" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54">
+        <v>13</v>
+      </c>
+      <c r="K65" s="55"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54">
+        <v>12</v>
+      </c>
+      <c r="S65" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T65" s="54"/>
+      <c r="U65" s="46">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="57"/>
+    </row>
+    <row r="66" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54">
+        <v>3</v>
+      </c>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T66" s="54"/>
+      <c r="U66" s="46">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="57"/>
+    </row>
+    <row r="67" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="54">
+        <v>2.7</v>
+      </c>
+      <c r="E67" s="54">
+        <f>30+2.7+0.7</f>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T67" s="54"/>
+      <c r="U67" s="46">
+        <f t="shared" si="5"/>
+        <v>36.100000000000009</v>
+      </c>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="57"/>
+    </row>
+    <row r="68" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T68" s="54"/>
+      <c r="U68" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="57"/>
+    </row>
+    <row r="69" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54">
+        <v>9</v>
+      </c>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T69" s="54"/>
+      <c r="U69" s="46">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="57"/>
+    </row>
+    <row r="70" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T70" s="54"/>
+      <c r="U70" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="57"/>
+    </row>
+    <row r="71" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T71" s="54"/>
+      <c r="U71" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="57"/>
+    </row>
+    <row r="72" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="41"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T72" s="54"/>
+      <c r="U72" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="57"/>
+    </row>
+    <row r="73" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="60"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T73" s="54"/>
+      <c r="U73" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="54"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="57"/>
+    </row>
+    <row r="74" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="60"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T74" s="54"/>
+      <c r="U74" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="54"/>
+      <c r="W74" s="54"/>
+      <c r="X74" s="54"/>
+      <c r="Y74" s="54"/>
+      <c r="Z74" s="57"/>
+    </row>
+    <row r="75" spans="2:26" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T75" s="54"/>
+      <c r="U75" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="54"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="57"/>
+    </row>
+    <row r="76" spans="2:26" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63">
-        <f>SUM(D8:D60)</f>
-        <v>68.2</v>
-      </c>
-      <c r="E61" s="63">
-        <f>SUM(E8:E60)</f>
-        <v>134.19999999999999</v>
-      </c>
-      <c r="F61" s="63">
-        <f>SUM(F8:F60)</f>
-        <v>79.5</v>
-      </c>
-      <c r="G61" s="63">
-        <f>SUM(G8:G60)</f>
-        <v>11</v>
-      </c>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63">
-        <f>SUM(J8:J60)</f>
-        <v>44.5</v>
-      </c>
-      <c r="K61" s="64">
-        <f>SUM(K8:K60)</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="32"/>
-      <c r="M61" s="65">
-        <f>SUM(M8:M60)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="63">
-        <f>SUM(N8:N60)</f>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63">
+        <f>SUM(D8:D75)</f>
+        <v>86.7</v>
+      </c>
+      <c r="E76" s="63">
+        <f>SUM(E8:E75)</f>
+        <v>167.9</v>
+      </c>
+      <c r="F76" s="63">
+        <f>SUM(F8:F75)</f>
+        <v>84</v>
+      </c>
+      <c r="G76" s="63">
+        <f>SUM(G8:G75)</f>
+        <v>89</v>
+      </c>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63">
+        <f>SUM(J8:J75)</f>
+        <v>50</v>
+      </c>
+      <c r="K76" s="64">
+        <f>SUM(K8:K75)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="32"/>
+      <c r="M76" s="65">
+        <f>SUM(M8:M75)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="63">
+        <f>SUM(N8:N75)</f>
         <v>51.5</v>
       </c>
-      <c r="O61" s="63">
-        <f>SUM(O8:O60)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63">
-        <f>SUM(Q8:Q60)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="63">
-        <f>SUM(R8:R60)</f>
-        <v>58</v>
-      </c>
-      <c r="S61" s="63">
-        <f>SUM(S8:S60)</f>
-        <v>0</v>
-      </c>
-      <c r="T61" s="63"/>
-      <c r="U61" s="66">
-        <f>SUM(U8:U60)</f>
-        <v>493.4</v>
-      </c>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63">
-        <f>SUM(W8:W60)</f>
-        <v>0</v>
-      </c>
-      <c r="X61" s="63">
-        <f>SUM(X8:X60)</f>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="63">
-        <f>SUM(Y8:Y60)</f>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="63">
-        <f>SUM(Z8:Z60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26" s="36" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-    </row>
-    <row r="63" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-    </row>
-    <row r="64" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-    </row>
-    <row r="65" spans="4:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
+      <c r="O76" s="63">
+        <f>SUM(O8:O75)</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63">
+        <f>SUM(Q8:Q75)</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="63">
+        <f>SUM(R8:R75)</f>
+        <v>68.5</v>
+      </c>
+      <c r="S76" s="63">
+        <f>SUM(S8:S75)</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="63"/>
+      <c r="U76" s="66">
+        <f>SUM(U8:U75)</f>
+        <v>621.1</v>
+      </c>
+      <c r="V76" s="63"/>
+      <c r="W76" s="63">
+        <f>SUM(W8:W75)</f>
+        <v>0</v>
+      </c>
+      <c r="X76" s="63">
+        <f>SUM(X8:X75)</f>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="63">
+        <f>SUM(Y8:Y75)</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="63">
+        <f>SUM(Z8:Z75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" s="36" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+    </row>
+    <row r="78" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="72"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+    </row>
+    <row r="79" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+    </row>
+    <row r="80" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="72"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6886,7 +7425,7 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="W6:Z6"/>
   </mergeCells>
-  <conditionalFormatting sqref="W9:W13 W18 W23">
+  <conditionalFormatting sqref="W9:W13 W22 W27">
     <cfRule type="expression" priority="3">
       <formula>W9/$Z9</formula>
     </cfRule>
@@ -6900,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E7D233-A1AF-4032-9D04-AF4667CD55C4}">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7102,7 +7641,7 @@
       <c r="W7" s="34"/>
     </row>
     <row r="8" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="41"/>
@@ -7168,7 +7707,7 @@
       <c r="W9" s="34"/>
     </row>
     <row r="10" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="41"/>
@@ -7228,7 +7767,7 @@
       <c r="W11" s="44"/>
     </row>
     <row r="12" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="1"/>
